--- a/app/public/file/csv/template/gg_xxx.xlsx
+++ b/app/public/file/csv/template/gg_xxx.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\github\ibeem\app\public\file\csv\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFAF626-0943-45B7-916C-E43ABDB20B3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>调研测试主体单位</t>
   </si>
@@ -446,6 +452,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>U</t>
@@ -456,6 +463,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -513,18 +521,16 @@
   <si>
     <t>非传统水源利用率</t>
   </si>
+  <si>
+    <t>建筑名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,161 +573,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,192 +613,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1036,279 +739,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,116 +763,96 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1716,16 +1139,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1739,105 +1162,104 @@
     <col min="22" max="22" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" ht="33" spans="1:23">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:23" s="15" customFormat="1" ht="33">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"GB/T50378-2006,GB/T50378-2014,地标……"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1 U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1 U2:U1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"出租,出售,自用"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="$A2:$XFD2"/>
+      <selection activeCell="I2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1860,93 +1282,92 @@
     <col min="23" max="23" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="49.5" spans="1:23">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:23" s="13" customFormat="1" ht="49.5">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="14" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
@@ -1960,227 +1381,227 @@
     <col min="21" max="21" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:52">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="27" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="6" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6" t="s">
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="6"/>
+      <c r="AZ1" s="19"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:52">
-      <c r="A2" s="19"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="18" t="s">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AM2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AV2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AW2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AX2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AY2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AZ2" s="18" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="11:11">
+    <row r="4" spans="1:52">
       <c r="K4" t="s">
         <v>96</v>
       </c>
@@ -2195,30 +1616,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="$A3:$XFD3"/>
+      <selection activeCell="D3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -2232,80 +1652,80 @@
     <col min="16" max="16" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="20" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33" spans="1:16">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="33">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="16:16">
-      <c r="P7" s="23"/>
+    <row r="7" spans="1:16">
+      <c r="P7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2315,78 +1735,77 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="13"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
-    <row r="2" ht="33" spans="1:10">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:10" ht="33">
+      <c r="A2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2395,14 +1814,13 @@
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2418,88 +1836,88 @@
     <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="8" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="49.5" spans="1:18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="49.5">
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="7"/>
+    <row r="10" spans="1:18">
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2509,15 +1927,16 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/public/file/csv/template/gg_xxx.xlsx
+++ b/app/public/file/csv/template/gg_xxx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\github\ibeem\app\public\file\csv\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFAF626-0943-45B7-916C-E43ABDB20B3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A1175C-9870-4938-92F1-402EB17A0395}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27615" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="室内环境参数设计" sheetId="6" r:id="rId5"/>
     <sheet name="节水设计" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="152">
   <si>
     <t>调研测试主体单位</t>
   </si>
@@ -525,12 +525,63 @@
     <t>建筑名称</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>测试课题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试建筑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibeem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试单位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +593,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -549,24 +601,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,6 +648,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -740,10 +812,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,6 +859,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,12 +929,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1145,18 +1234,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="16" width="16.125" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.375" customWidth="1"/>
     <col min="19" max="20" width="11.125" customWidth="1"/>
     <col min="22" max="22" width="13.25" customWidth="1"/>
@@ -1175,7 +1267,7 @@
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -1231,6 +1323,74 @@
       </c>
       <c r="W1" s="14" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="B2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2">
+        <v>13511111111</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="19">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="19">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="O2" s="19">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="P2" s="19">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="20">
+        <v>10000</v>
+      </c>
+      <c r="S2" s="21">
+        <v>2000</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1382,77 +1542,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="19" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19" t="s">
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="19"/>
+      <c r="AZ1" s="25"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
@@ -1653,37 +1813,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="33">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="10" t="s">
         <v>99</v>
       </c>
@@ -1763,19 +1923,19 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="33">
       <c r="A2" s="9" t="s">
@@ -1837,39 +1997,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="29" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="49.5">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="2" t="s">
         <v>124</v>
       </c>

--- a/app/public/file/csv/template/gg_xxx.xlsx
+++ b/app/public/file/csv/template/gg_xxx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\github\ibeem\app\public\file\csv\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A1175C-9870-4938-92F1-402EB17A0395}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E95F7F-1709-4C8E-9869-CF7F97BC7DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27615" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27615" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>建筑类型</t>
-  </si>
-  <si>
-    <t>地理位置</t>
   </si>
   <si>
     <t>申报单位</t>
@@ -571,6 +568,10 @@
   </si>
   <si>
     <t>五星</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在城市</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1238,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1268,99 +1269,99 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="B2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="D2">
         <v>13511111111</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>145</v>
-      </c>
       <c r="I2" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="19">
         <v>43498.423726851855</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="N2" s="19">
         <v>43498.423726851855</v>
@@ -1381,16 +1382,16 @@
         <v>2000</v>
       </c>
       <c r="T2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="V2" s="20">
         <v>1000</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1447,70 +1448,70 @@
         <v>4</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1546,13 +1547,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -1569,7 +1570,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
       <c r="S1" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
@@ -1601,11 +1602,11 @@
       <c r="AU1" s="24"/>
       <c r="AV1" s="24"/>
       <c r="AW1" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AX1" s="25"/>
       <c r="AY1" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ1" s="25"/>
     </row>
@@ -1614,156 +1615,156 @@
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AW2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AX2" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="AY2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="K4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1817,13 +1818,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -1832,7 +1833,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
@@ -1845,43 +1846,43 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1924,14 +1925,14 @@
     <row r="1" spans="1:10">
       <c r="A1" s="8"/>
       <c r="B1" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
@@ -1939,34 +1940,34 @@
     </row>
     <row r="2" spans="1:10" ht="33">
       <c r="A2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2001,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -2016,7 +2017,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -2031,49 +2032,49 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:18">
